--- a/Course resources.xlsx
+++ b/Course resources.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aditya\Downloads-D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aditya\Downloads-D\Data Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D7C9FD-A708-416B-AA9F-6BD603740030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC84AA6C-0A6E-41E8-9BF7-E04E7B722D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Science" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Data Science</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Power BI</t>
+  </si>
+  <si>
+    <t>Satish Dhawala</t>
   </si>
 </sst>
 </file>
@@ -170,9 +173,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -182,10 +182,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,253 +472,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G5"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="16.7265625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="16.7265625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:G26"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:G15"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:G18"/>
+  <mergeCells count="18">
+    <mergeCell ref="C27:G28"/>
+    <mergeCell ref="A25:B28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C20:G21"/>
     <mergeCell ref="A20:B23"/>
@@ -727,6 +746,11 @@
     <mergeCell ref="C7:G8"/>
     <mergeCell ref="C9:G10"/>
     <mergeCell ref="C11:G12"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:G18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2:G3" r:id="rId1" display="iScale" xr:uid="{EE7AA6E1-2210-4DD3-88A4-03AF8906C854}"/>
@@ -739,6 +763,8 @@
     <hyperlink ref="C20" r:id="rId8" xr:uid="{50A231B5-129F-42D7-B32B-9DDBC7FC0611}"/>
     <hyperlink ref="C22:G23" r:id="rId9" display="Tutorial Point" xr:uid="{28EDCDE6-656D-489A-B5AF-42B950F41630}"/>
     <hyperlink ref="C25" r:id="rId10" xr:uid="{0FF5262E-1EFA-486A-9F4D-54B9AAA761D3}"/>
+    <hyperlink ref="C27" r:id="rId11" display="iScale" xr:uid="{BA62A392-8A79-4309-B6A2-4CDAC353A3BB}"/>
+    <hyperlink ref="C27:G28" r:id="rId12" display="Satish Dhawala" xr:uid="{25C7D449-2894-4AF3-9E33-E37062FC0E03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
